--- a/資料/Registrationテスト .xlsx
+++ b/資料/Registrationテスト .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="369">
   <si>
     <t>単体テスト</t>
   </si>
@@ -43,16 +43,16 @@
     <t>環境</t>
   </si>
   <si>
-    <t>テスト成否チェック</t>
+    <t>エラーチェック</t>
   </si>
   <si>
     <t>不具合内容</t>
   </si>
   <si>
-    <t>名前（姓）の入力フォームに対して入力文字数が最大10字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>名前（姓）の入力フォームに対して11文字以上の入力を行った場合</t>
+    <t>名前（姓）の入力フォームに対して入力文字数が最大10字以内でない場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対して11文字の入力を行った場合</t>
   </si>
   <si>
     <t>名前（姓）の入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
@@ -61,84 +61,174 @@
     <t>打越</t>
   </si>
   <si>
+    <t>エラーメッセージが赤くない</t>
+  </si>
+  <si>
     <t>MacOS</t>
   </si>
   <si>
-    <t>名前（名）の入力フォームに対して入力文字数が最大10字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>名前（名）の入力フォームに対して11文字以上の入力を行った場合</t>
+    <t>名前（名）の入力フォームに対して入力文字数が最大10字以内でない場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対して11文字の入力を行った場合</t>
   </si>
   <si>
     <t>名前（名）の入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
-    <t>カナ（姓）の入力フォームに対して入力文字数が最大10字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>カナ（姓）の入力フォームに対して11文字以上の入力を行った場合</t>
+    <t>カナ（姓）の入力フォームに対して入力文字数が最大10字以内でない場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対して11文字の入力を行った場合</t>
   </si>
   <si>
     <t>カナ（姓）の入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
-    <t>カナ（名）の入力フォームに対して入力文字数が最大10字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>カナ（名）の入力フォームに対して11文字以上の入力を行った場合</t>
-  </si>
-  <si>
-    <t>メールアドレスの入力フォームに対して入力文字数が最大100字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>メールアドレスの入力フォームに対して101文字以上の入力を行った場合</t>
+    <t>カナ（名）の入力フォームに対して入力文字数が最大10字以内でない場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対して11文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して入力文字数が最大100字以内でない場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して101文字の入力を行った場合</t>
   </si>
   <si>
     <t>メールアドレスの入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
-    <t>パスワードの入力フォームに対して入力文字数が最大文10字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>パスワードの入力フォームに対して11文字以上の入力を行った場合</t>
+    <t>パスワードの入力フォームに対して入力文字数が最大文10字以内でない場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して11文字の入力を行った場合</t>
   </si>
   <si>
     <t>パスワードの入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
-    <t>パスワードの入力フォームに対して入力文字数が最小3字以上でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>パスワードの入力フォームに対して3文字未満の入力を行った場合</t>
-  </si>
-  <si>
-    <t>郵便番号の入力フォームに対して入力文字数が最大文７字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>郵便番号の入力フォームに対して11文字以上の入力を行った場合</t>
+    <t>パスワードの入力フォームに対して入力文字数が最小3字以上でない場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して2文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに対して入力文字数が最大文７字以内でない場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに対して8文字の入力を行った場合</t>
   </si>
   <si>
     <t>郵便番号の入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
-    <t>住所(市区町村)の入力フォームに対して入力文字数が最大10字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>住所(市区町村)の入力フォームに対して11文字以上の入力を行った場合</t>
+    <t>住所(市区町村)の入力フォームに対して入力文字数が最大10字以内でない場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して11文字の入力を行った場合</t>
   </si>
   <si>
     <t>住所(市区町村)の入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
-    <t>住所(番地)の入力フォームに対して入力文字数が最大100字以内でない場合エラーメッセージが表示される事</t>
-  </si>
-  <si>
-    <t>住所(番地)の入力フォームに対して101文字以上の入力を行った場合</t>
+    <t>住所(番地)の入力フォームに対して入力文字数が最大100字以内でない場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して101文字の入力を行った場合</t>
   </si>
   <si>
     <t>住所(番地)の入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
+    <t>名前（姓）の入力フォームに対して入力文字数が最大10字以内の場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対して10文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移し名前（姓）に入力値が表示される</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対して入力文字数が最大10字以内の場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対して10文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移し名前（名）に入力値が表示される</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対して入力文字数が最大10字以内の場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対して10文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移しカナ（姓）に入力値が表示される</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対して入力文字数が最大10字以内の場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対して10文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移しカナ（名）に入力値が表示される</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して入力文字数が最大100字以内の場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して100文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移しメールアドレスに入力値が表示される</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して入力文字数が最大文10字以内の場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して10文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移しパスワードに入力値が表示される</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して入力文字数が最小3字以上の場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して3文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに対して入力文字数が最大文７字以内の場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに対して7文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移し郵便番号の入力値が表示される</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して入力文字数が最大10字以内の場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して10文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移し住所(市区町村)の入力値が表示される</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して入力文字数が最大100字以内の場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して100文字の入力を行った場合</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移し住所(番地)の入力値が表示される</t>
+  </si>
+  <si>
     <t>名前（姓）の入力フォームが未入力の場合エラーメッセージが表示される事</t>
   </si>
   <si>
@@ -163,49 +253,406 @@
     <t>カナ（名）の入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
-    <t>メールアドレスの入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>メールアドレスの入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>メールアドレスの入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
-    <t>パスワードの入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>パスワードの入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>パスワードの入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
-    <t>郵便番号の入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>メールアドレスの項目だけ入力可能文字が表示されていない</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>郵便番号の入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
-    <t>住所(市区町村)の入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>住所(市区町村)の入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>住所(市区町村)の入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
-    <t>住所(番地)の入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>住所(番地)の入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>住所(番地)の入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
+    <t>住所(都道府県)の選択フォームが未選択の場合</t>
+  </si>
+  <si>
+    <t>住所(都道府県)の選択フォームが未選択で確認するボタンが押された場合</t>
+  </si>
+  <si>
+    <t>住所(都道府県)の入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>各フォームの入力が全て正確に入力または選択されている場合</t>
+  </si>
+  <si>
+    <t>登録ボタンを押す</t>
+  </si>
+  <si>
+    <t>ページが登録確認画面に遷移する</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対して漢字、ひらがな以外の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに漢字、ひらがな以外を入力時</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対して漢字、ひらがな以外の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに漢字、ひらがな以外を入力時</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対してカタカナ以外の入力行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームにカタカナ以外を入力時</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対してカタカナ以外の入力行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームにカタカナ以外を入力時</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して半角英数字以外の行われた場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに半角英数字以外を入力時</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームにいる場合半角から全角に変換できない為問題ないと思っていたが、コピー貼り付けで入力出来てしまった</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して半角英数字、@、ドット以外の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）以外の入力時</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに半角数字以外の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに半角英数字以外を入力時</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の入力時</t>
+  </si>
+  <si>
+    <t>住所（市区町村）がスペースだけで入力できてしまう</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の入力時</t>
+  </si>
+  <si>
+    <t>（番地）がスペースだけで入力できてしまう</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、性別の初期が男性が選ばれている事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューから登録ホームリンクからアカウント登録フォームの画面に遷移した時</t>
+  </si>
+  <si>
+    <t>性別で男性が選ばれている事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、住所(都道府県)の初期が選択してくださいになっている事</t>
+  </si>
+  <si>
+    <t>住所(都道府県)が選択してくださいになっている事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、アカウント権限の初期が一般が選ばれている事</t>
+  </si>
+  <si>
+    <t>アカウント権限が一般になっている事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、名前(姓)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>名前(姓)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、名前(名)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>名前(名)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、カナ(姓)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>カナ(姓)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、カナ(名)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>カナ(名)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、メールアドレスの入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、パスワードの入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、郵便番号の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、住所(都道府県)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>住所(都道府県)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、住所(市区町村)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、住所(番地)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームが空欄である事</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に表示された場合</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に表示された時</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に表示された際に登録が完了しました、またはエラーが発生したためアカウント登録できませんが表示される</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、名前(姓)の入力フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るが押された時</t>
+  </si>
+  <si>
+    <t>名前(姓)の入力フォームに入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、名前(名)の入力フォーム</t>
+  </si>
+  <si>
+    <t>名前(名)の入力フォームに入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、カナ(姓)の入力フォーム</t>
+  </si>
+  <si>
+    <t>カナ(姓)の入力フォームに入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、カナ(名)の入力フォーム</t>
+  </si>
+  <si>
+    <t>カナ(名)の入力フォームに入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、メールアドレスの入力フォーム</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、パスワードの入力フォーム</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームが空である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、性別が選択フォーム</t>
+  </si>
+  <si>
+    <t>性別が選択値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、郵便番号の入力フォーム</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、住所(都道府県)が選択フォーム</t>
+  </si>
+  <si>
+    <t>住所(都道府県)が選択値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、住所(市区町村)の入力フォーム</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、住所(番地)の入力フォーム</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面、前に戻るからアカウント登録フォームに遷移した際、アカウント権限が選択フォーム</t>
+  </si>
+  <si>
+    <t>アカウント権限が選択値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、名前(姓)表示</t>
+  </si>
+  <si>
+    <t>確認するからアカウント登録確認画面が表示された時</t>
+  </si>
+  <si>
+    <t>名前(姓)表示が入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、名前(名)表示</t>
+  </si>
+  <si>
+    <t>名前(名)表示が入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、カナ(姓)表示</t>
+  </si>
+  <si>
+    <t>カナ(姓)表示が入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、カナ(名)表示</t>
+  </si>
+  <si>
+    <t>カナ(名)表示が入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、メールアドレス表示</t>
+  </si>
+  <si>
+    <t>メールアドレス表示が入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、パスワードの表示</t>
+  </si>
+  <si>
+    <t>パスワードの表示が⚫︎で表示されている</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、性別の表示</t>
+  </si>
+  <si>
+    <t>性別表示が選択値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、郵便番号の表示</t>
+  </si>
+  <si>
+    <t>郵便番号表示が入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、住所(都道府県)表示</t>
+  </si>
+  <si>
+    <t>住所(都道府県)表示が選択値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、住所(市町村)表示</t>
+  </si>
+  <si>
+    <t>住所(市町村)表示が入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、住所(番地)表示</t>
+  </si>
+  <si>
+    <t>住所(番地)表示が入力値である事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム、確認するからアカウント登録確認画面に遷移した際、アカウント権限表示</t>
+  </si>
+  <si>
+    <t>アカウント権限表示が選択値である事</t>
+  </si>
+  <si>
+    <t>住所(都道府県)を選択する時</t>
+  </si>
+  <si>
+    <t>住所(都道府県)の選択肢を全て一度以上選択する</t>
+  </si>
+  <si>
+    <t>正しく選択されたものが文字化け、文字切れをしていないで表示される事</t>
+  </si>
+  <si>
     <t>結合テスト</t>
   </si>
   <si>
+    <t xml:space="preserve"> ID</t>
+  </si>
+  <si>
     <t>チェック</t>
   </si>
   <si>
-    <t>各入力フィールドに対して適切なデータを入力し、フォームが正常に送信されること</t>
-  </si>
-  <si>
-    <t>入力データがデータベースに正しく保存されること</t>
+    <t>各入力フィールドに対して適切なデータを入力し、確認ボタンを押した場合</t>
+  </si>
+  <si>
+    <t>確認ボタンを押した時</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に遷移される</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から登録ボタンを押した場合</t>
+  </si>
+  <si>
+    <t>登録するボタンを押した時</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に遷移される</t>
   </si>
   <si>
     <t>日付</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から登前に戻るボタンを押した場合</t>
+  </si>
+  <si>
+    <t>前の戻るボタンを押した時</t>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移され、各項目に入力値（アカウント登録確認画面で表示した入力値）をセットされる</t>
   </si>
   <si>
     <r>
@@ -226,16 +673,37 @@
     </r>
   </si>
   <si>
+    <t>アカウント登録完了画面からTOPに戻るを押した場合</t>
+  </si>
+  <si>
+    <t>TOPに戻るを押した時</t>
+  </si>
+  <si>
+    <t>DIブログに遷移される</t>
+  </si>
+  <si>
     <t>確認するをクリックした際の遷移先</t>
   </si>
   <si>
+    <t>入力データがデータベースに正しく保存されること</t>
+  </si>
+  <si>
     <t>値の受け渡し</t>
   </si>
   <si>
     <t>値の表示</t>
   </si>
   <si>
+    <t>アカウント登録確認画面からアカウント登録確認画面からブラウザー進むでアカウント登録確認画面へ遷移した場合</t>
+  </si>
+  <si>
+    <t>エラー画面が表示されもう一度アカウント登録画面から入力し直しになる</t>
+  </si>
+  <si>
     <t>確認するをクリックした際エラーがあったっら遷移できなくなっているか</t>
+  </si>
+  <si>
+    <t>アカウント登録完了からブラウザーの戻るでアカウント登録確認画面へ遷移した場合</t>
   </si>
   <si>
     <r>
@@ -256,30 +724,216 @@
     </r>
   </si>
   <si>
+    <t>登録確認画面で名前(姓)に表示されている値</t>
+  </si>
+  <si>
+    <t>登録ボタンを押された時</t>
+  </si>
+  <si>
+    <t>データベースに登録される値が名前(姓)表示と同じ値である事</t>
+  </si>
+  <si>
     <t>前へ戻るをクリックした際の遷移先</t>
   </si>
   <si>
+    <t>登録確認画面で名前(名)に表示されている値</t>
+  </si>
+  <si>
+    <t>データベースに登録される値が名前(名)表示と同じ値であるか</t>
+  </si>
+  <si>
+    <t>登録確認画面でカナ(姓)に表示されている値</t>
+  </si>
+  <si>
+    <t>データベースに登録される値がカナ(姓)表示と同じ値であるか</t>
+  </si>
+  <si>
+    <t>登録確認画面でカナ(名)に表示されている値</t>
+  </si>
+  <si>
+    <t>データベースに登録される値がカナ(名)表示と同じ値であるか</t>
+  </si>
+  <si>
+    <t>登録確認画面でメールアドレスに表示されている</t>
+  </si>
+  <si>
+    <t>データベースに登録される値がメールアドレス表示と同じ値であるか</t>
+  </si>
+  <si>
     <t>regist_confirm.php→regist_complete.php</t>
   </si>
   <si>
+    <t>登録確認画面でパスワードでの表示</t>
+  </si>
+  <si>
+    <t>データベースに登録されたパスワードの値がハッシュ化されて登録されているか</t>
+  </si>
+  <si>
     <t>登録するをクリックした際の遷移先</t>
   </si>
   <si>
+    <t>登録確認画面で性別の欄に男性が表示されている場合</t>
+  </si>
+  <si>
+    <t>データベースに0が登録されているか</t>
+  </si>
+  <si>
+    <t>登録確認画面で性別の欄に女性が表示されている場合</t>
+  </si>
+  <si>
+    <t>データベースに1が登録されているか</t>
+  </si>
+  <si>
     <t>データベースへの値の登録</t>
   </si>
   <si>
+    <t>登録確認画面で郵便番号に表示されている値</t>
+  </si>
+  <si>
+    <t>データベースに登録される値が郵便番号表示と同じ値であるか</t>
+  </si>
+  <si>
     <t>DB登録時にエラーが発生する場合メッセージ表示、またエラーの場合にデータベースに登録されないようになっているか</t>
   </si>
   <si>
+    <t>登録確認画面で住所(都道府県)の欄に表示されている値</t>
+  </si>
+  <si>
+    <t>データベースに登録される値が住所(都道府県)の欄に表示されている値と同じ値であるか</t>
+  </si>
+  <si>
     <t>戻るボタンを押した時にregist_confirm.phpに戻れないようになっているか</t>
   </si>
   <si>
+    <t>登録確認画面で住所(市町村)に表示されている値</t>
+  </si>
+  <si>
+    <t>データベースに登録される値が住所(市町村)の欄に表示されている値と同じ値であるか</t>
+  </si>
+  <si>
+    <t>登録確認画面で住所(番地)に表示されている値</t>
+  </si>
+  <si>
+    <t>データベースに登録される値が住所(番地)の欄に表示されている値と同じ値であるか</t>
+  </si>
+  <si>
+    <t>登録確認画面でアカウント権限の欄に一般が表示されている場合</t>
+  </si>
+  <si>
     <t>regist_complete.phpか→index.php</t>
   </si>
   <si>
+    <t>登録確認画面でアカウント権限の欄に管理者が表示されている場合</t>
+  </si>
+  <si>
     <t>topページへ戻るをクリックした際の遷移先</t>
   </si>
   <si>
+    <t>登録ボタンを押され登録完了画面に『アカウントの登録が完了しました。』が表示された時</t>
+  </si>
+  <si>
+    <t>データベースregistered_timeカラムに登録ボタンが押された時の年月日が登録されているか</t>
+  </si>
+  <si>
+    <t>データベースdelete_flagカラムに登録ボタンが押された時の0が登録されているか</t>
+  </si>
+  <si>
+    <t>データベースに登録される列のIDに自動で番号が付けられているか</t>
+  </si>
+  <si>
+    <t>メールアドレスが一度登録したことのあるアドレスが再度の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>『エラーが発生したためアカウント登録できません』が表示され、データベースに登録が行われない</t>
+  </si>
+  <si>
+    <t>前へ戻るが押された時</t>
+  </si>
+  <si>
+    <t>名前(姓)の入力フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>名前(名)の入力フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>カナ(姓)の入力フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>カナ(名)の入力フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>性別のラジオボタンが選択が男性になている事</t>
+  </si>
+  <si>
+    <t>性別のラジオボタンが選択が女性になている事</t>
+  </si>
+  <si>
+    <t>郵便番号表示の入力フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>住所(都道府県)の選択フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>住所(市町村)の入力フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームが表示と同じ値である事</t>
+  </si>
+  <si>
+    <t>アカウント権限のラジオボタンが選択が一般になているか</t>
+  </si>
+  <si>
+    <t>アカウント権限のラジオボタンが選択が管理者になているか</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面で入力した名前(姓)フォーム</t>
+  </si>
+  <si>
+    <t>確認するが押された時</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した名前(名)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力したカナ(姓)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力したカナ(名)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力したメールアドレスフォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力したパスワードフォーム</t>
+  </si>
+  <si>
+    <t>パスワードの表示が⚫︎で表示されている事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した性別フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した郵便番号フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した住所(都道府県)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した住所(市町村)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面で入力した住所(番地)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面で入力したアカウント権限フォーム</t>
+  </si>
+  <si>
+    <t>メニューから登録ホームリンクでアカウント登録フォームの画面に遷移した時</t>
+  </si>
+  <si>
     <t>不具合</t>
   </si>
   <si>
@@ -292,9 +946,6 @@
     <t>操作手順</t>
   </si>
   <si>
-    <t>メールアドレスの項目だけ入力可能文字が表示されていない</t>
-  </si>
-  <si>
     <t>メールアドレスフォーム</t>
   </si>
   <si>
@@ -311,9 +962,6 @@
   </si>
   <si>
     <t>住所（市区町村）フォーム入力時</t>
-  </si>
-  <si>
-    <t>エラーメッセージが赤くない</t>
   </si>
   <si>
     <t>各フォーム</t>
@@ -513,8 +1161,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m月d日"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="m月d日"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -547,11 +1196,6 @@
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF374151"/>
-      <name val="Söhne"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -565,6 +1209,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF374151"/>
+      <name val="Söhne"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -601,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -610,6 +1259,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -620,11 +1272,18 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -632,11 +1291,8 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -877,9 +1533,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.5"/>
-    <col customWidth="1" min="2" max="2" width="84.13"/>
-    <col customWidth="1" min="3" max="3" width="58.63"/>
-    <col customWidth="1" min="4" max="4" width="75.63"/>
+    <col customWidth="1" min="2" max="2" width="64.5"/>
+    <col customWidth="1" min="3" max="3" width="54.0"/>
+    <col customWidth="1" min="4" max="4" width="83.88"/>
     <col customWidth="1" min="5" max="5" width="9.5"/>
     <col customWidth="1" min="6" max="6" width="10.13"/>
     <col customWidth="1" min="7" max="7" width="23.88"/>
@@ -942,32 +1598,44 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>2.0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>0</v>
@@ -977,20 +1645,26 @@
       <c r="A6" s="1">
         <v>3.0</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
@@ -1000,20 +1674,26 @@
       <c r="A7" s="1">
         <v>4.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>0</v>
@@ -1024,19 +1704,25 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F8" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>0</v>
@@ -1047,19 +1733,25 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>0</v>
@@ -1070,19 +1762,25 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F10" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>0</v>
@@ -1093,19 +1791,25 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F11" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>0</v>
@@ -1116,43 +1820,55 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F12" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>10.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F13" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>0</v>
@@ -1163,91 +1879,103 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F14" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>12.0</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F15" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>13.0</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>21</v>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F16" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>14.0</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F17" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1255,22 +1983,25 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F18" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1278,22 +2009,25 @@
         <v>16.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F19" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1301,22 +2035,25 @@
         <v>17.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F20" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1324,22 +2061,25 @@
         <v>18.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F21" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1347,36 +2087,78 @@
         <v>19.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F22" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>20.0</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>21.0</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="1" t="b">
         <v>0</v>
       </c>
@@ -1385,50 +2167,180 @@
       <c r="A25" s="1">
         <v>22.0</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>23.0</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>24.0</v>
       </c>
+      <c r="B27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>25.0</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I28" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>26.0</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>27.0</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I30" s="1" t="b">
         <v>0</v>
       </c>
@@ -1437,6 +2349,27 @@
       <c r="A31" s="1">
         <v>28.0</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I31" s="1" t="b">
         <v>0</v>
       </c>
@@ -1445,6 +2378,27 @@
       <c r="A32" s="1">
         <v>29.0</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I32" s="1" t="b">
         <v>0</v>
       </c>
@@ -1453,6 +2407,27 @@
       <c r="A33" s="1">
         <v>30.0</v>
       </c>
+      <c r="B33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I33" s="1" t="b">
         <v>0</v>
       </c>
@@ -1461,6 +2436,27 @@
       <c r="A34" s="1">
         <v>31.0</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I34" s="1" t="b">
         <v>0</v>
       </c>
@@ -1469,6 +2465,27 @@
       <c r="A35" s="1">
         <v>32.0</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I35" s="1" t="b">
         <v>0</v>
       </c>
@@ -1477,6 +2494,27 @@
       <c r="A36" s="1">
         <v>33.0</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I36" s="1" t="b">
         <v>0</v>
       </c>
@@ -1485,6 +2523,27 @@
       <c r="A37" s="1">
         <v>34.0</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I37" s="1" t="b">
         <v>0</v>
       </c>
@@ -1493,22 +2552,89 @@
       <c r="A38" s="1">
         <v>35.0</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I38" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>36.0</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I39" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
         <v>37.0</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I40" s="1" t="b">
         <v>0</v>
       </c>
@@ -1517,6 +2643,27 @@
       <c r="A41" s="1">
         <v>38.0</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I41" s="1" t="b">
         <v>0</v>
       </c>
@@ -1525,80 +2672,1330 @@
       <c r="A42" s="1">
         <v>39.0</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I42" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>40.0</v>
       </c>
+      <c r="B43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I43" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
         <v>41.0</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
         <v>42.0</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>43.0</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>44.0</v>
       </c>
+      <c r="B47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>45.0</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="B48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>46.0</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="B49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>47.0</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="B50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
         <v>48.0</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1619,19 +4016,22 @@
     <col customWidth="1" min="2" max="2" width="49.5"/>
     <col customWidth="1" min="3" max="3" width="34.63"/>
     <col customWidth="1" min="4" max="4" width="26.5"/>
-    <col customWidth="1" min="7" max="7" width="19.5"/>
-    <col customWidth="1" min="8" max="8" width="7.13"/>
+    <col customWidth="1" min="7" max="8" width="19.5"/>
+    <col customWidth="1" min="9" max="9" width="7.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1651,266 +4051,2078 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="N5" s="1" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>60</v>
+        <v>209</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="N6" s="3" t="s">
-        <v>64</v>
+      <c r="B6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7">
-      <c r="N7" s="1" t="s">
-        <v>65</v>
+      <c r="B7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="6">
+        <v>217</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q7" s="1" t="b">
+      <c r="R7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="N8" s="1" t="s">
-        <v>66</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="6">
+        <v>219</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q8" s="1" t="b">
+      <c r="R8" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="N9" s="1" t="s">
-        <v>67</v>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="6">
+        <v>220</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q9" s="1" t="b">
+      <c r="R9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="N10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="B10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q10" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q10" s="1" t="b">
+      <c r="R10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="N12" s="3" t="s">
-        <v>69</v>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13">
-      <c r="N13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="B13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q13" s="1" t="b">
+      <c r="R13" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="N14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="B14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q14" s="1" t="b">
+      <c r="R14" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="N15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="B15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q15" s="1" t="b">
+      <c r="R15" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17">
-      <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="N17" s="1" t="s">
-        <v>71</v>
+      <c r="B17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="N18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="6">
+      <c r="B18" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q18" s="1" t="b">
+      <c r="R18" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="N19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="6">
+      <c r="B19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q19" s="1" t="b">
+      <c r="R19" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="N20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="B20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q20" s="1" t="b">
+      <c r="R20" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="N21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="6">
+      <c r="B21" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q21" s="1" t="b">
+      <c r="R21" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
-      <c r="N22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P22" s="6">
+      <c r="B22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q22" s="1" t="b">
+      <c r="R22" s="1" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="N25" s="1" t="s">
-        <v>76</v>
+      <c r="B25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="26">
-      <c r="N26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" s="6">
+      <c r="B26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="7">
         <v>45321.0</v>
       </c>
-      <c r="Q26" s="1" t="b">
+      <c r="R26" s="1" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" s="5"/>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="N6"/>
-    <hyperlink r:id="rId2" ref="N12"/>
+    <hyperlink r:id="rId1" ref="O6"/>
+    <hyperlink r:id="rId2" ref="O12"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
@@ -1934,18 +6146,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>297</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1953,87 +6165,87 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>88</v>
+      <c r="A6" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>309</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>311</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>314</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2056,275 +6268,275 @@
   <sheetData>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>103</v>
+      <c r="A3" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>105</v>
+      <c r="A4" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>107</v>
+      <c r="A5" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>108</v>
+      <c r="A7" s="11" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>109</v>
+      <c r="A8" s="11" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
+      <c r="A9" s="11" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>111</v>
+      <c r="A10" s="11" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>112</v>
+      <c r="A11" s="11" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="A13" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="15"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>115</v>
+      <c r="A14" s="11" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>116</v>
+      <c r="A16" s="11" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>117</v>
+      <c r="A17" s="11" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>118</v>
+      <c r="A18" s="11" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>119</v>
+      <c r="A19" s="11" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>120</v>
+      <c r="A20" s="11" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>122</v>
+      <c r="A23" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>124</v>
+      <c r="A24" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>126</v>
+      <c r="A25" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="10">
+      <c r="A29" s="13">
         <v>2.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="s">
-        <v>127</v>
+      <c r="A37" s="17" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
-        <v>128</v>
+      <c r="A38" s="15" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>129</v>
+      <c r="A39" s="15" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="s">
-        <v>130</v>
+      <c r="A40" s="15" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
-        <v>131</v>
+      <c r="A41" s="18" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12" t="s">
-        <v>132</v>
+      <c r="A42" s="15" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="s">
-        <v>133</v>
+      <c r="A43" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="s">
-        <v>134</v>
+      <c r="A44" s="15" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="12" t="s">
-        <v>135</v>
+      <c r="A45" s="15" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="s">
-        <v>136</v>
+      <c r="A46" s="15" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="12" t="s">
-        <v>135</v>
+      <c r="A47" s="15" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="12" t="s">
-        <v>136</v>
+      <c r="A48" s="15" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>137</v>
+      <c r="A52" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="s">
-        <v>138</v>
+      <c r="A53" s="15" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="s">
-        <v>139</v>
+      <c r="A54" s="15" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="s">
-        <v>140</v>
+      <c r="A55" s="15" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="15" t="s">
-        <v>141</v>
+      <c r="A56" s="18" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="s">
-        <v>142</v>
+      <c r="A57" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="s">
-        <v>143</v>
+      <c r="A58" s="15" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="s">
-        <v>144</v>
+      <c r="A59" s="15" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="14" t="s">
-        <v>145</v>
+      <c r="A63" s="17" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="12" t="s">
-        <v>146</v>
+      <c r="A64" s="15" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="12" t="s">
-        <v>147</v>
+      <c r="A65" s="15" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="12" t="s">
-        <v>148</v>
+      <c r="A66" s="15" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="15" t="s">
-        <v>149</v>
+      <c r="A67" s="18" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="12" t="s">
-        <v>150</v>
+      <c r="A68" s="15" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12" t="s">
-        <v>151</v>
+      <c r="A69" s="15" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="12" t="s">
-        <v>152</v>
+      <c r="A70" s="15" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/資料/Registrationテスト .xlsx
+++ b/資料/Registrationテスト .xlsx
@@ -5,8 +5,7 @@
   <sheets>
     <sheet state="visible" name="単体テスト" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="結合テスト" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="不具合" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="説明" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="説明" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="442">
   <si>
     <t>単体テスト</t>
   </si>
@@ -229,25 +228,25 @@
     <t>確認するを押すとアカウント登録確認画面に遷移し住所(番地)の入力値が表示される</t>
   </si>
   <si>
-    <t>名前（姓）の入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>名前（姓）の入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>名前（姓）の入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
-    <t>名前（名）の入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>名前（名）の入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>名前（名）の入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
-    <t>カナ（姓）の入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>カナ（姓）の入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>カナ（姓）の入力フォームが未入力で確認するボタンが押された場合</t>
   </si>
   <si>
-    <t>カナ（名）の入力フォームが未入力の場合エラーメッセージが表示される事</t>
+    <t>カナ（名）の入力フォームが未入力の場合</t>
   </si>
   <si>
     <t>カナ（名）の入力フォームが未入力で確認するボタンが押された場合</t>
@@ -295,78 +294,402 @@
     <t>住所(都道府県)の入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
-    <t>各フォームの入力が全て正確に入力または選択されている場合</t>
-  </si>
-  <si>
-    <t>登録ボタンを押す</t>
-  </si>
-  <si>
-    <t>ページが登録確認画面に遷移する</t>
-  </si>
-  <si>
-    <t>名前（姓）の入力フォームに対して漢字、ひらがな以外の入力が行われた場合</t>
-  </si>
-  <si>
-    <t>名前（姓）の入力フォームに漢字、ひらがな以外を入力時</t>
-  </si>
-  <si>
-    <t>名前（名）の入力フォームに対して漢字、ひらがな以外の入力が行われた場合</t>
-  </si>
-  <si>
-    <t>名前（名）の入力フォームに漢字、ひらがな以外を入力時</t>
-  </si>
-  <si>
-    <t>カナ（姓）の入力フォームに対してカタカナ以外の入力行われた場合</t>
-  </si>
-  <si>
-    <t>カナ（姓）の入力フォームにカタカナ以外を入力時</t>
-  </si>
-  <si>
-    <t>カナ（名）の入力フォームに対してカタカナ以外の入力行われた場合</t>
-  </si>
-  <si>
-    <t>カナ（名）の入力フォームにカタカナ以外を入力時</t>
-  </si>
-  <si>
-    <t>パスワードの入力フォームに対して半角英数字以外の行われた場合</t>
-  </si>
-  <si>
-    <t>パスワードの入力フォームに半角英数字以外を入力時</t>
+    <t>名前（姓）の入力フォームに対してひらがなの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームにひらがなを入力時</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対して漢字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに漢字を入力時</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対してカタカナの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームにカタカナ、数字を入力時</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対して漢字、ひらがな以外の入力が行われた場合、入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対して数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに数字を入力時</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対して記号の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに記号を入力時</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームに対してアルファベットの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力フォームにアルファベットを入力時</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対してひらがなの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームにひらがなを入力時</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対して漢字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに漢字を入力時</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対してカタカナの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームにカタカナを入力時</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対して漢字、ひらがな以外の入力が行われた場合、入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対して数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに数字を入力時</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対して記号の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに記号を入力時</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームに対してアルファベットの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>名前（名）の入力フォームにアルファベットを入力時</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対してカタカナのみの入力行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームにカタカナを入力時</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対してひらがなの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームにひらがなを入力時</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対してカタカナ以外の入力が行われた場合、入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対して漢字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに漢字を入力時</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対して数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに数字を入力時</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対して記号の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに記号を入力時</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームに対してアルファベットの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力フォームにアルファベットを入力時</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対してカタカナのみの入力行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームにカタカナを入力時</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対してひらがなの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームにひらがなを入力時</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対してカタカナ以外の入力が行われた場合、入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対して漢字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに漢字を入力時</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対して数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに数字を入力時</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対して記号の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに記号を入力時</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームに対してアルファベットの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力フォームにアルファベットを入力時</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して半角英数字のみの行われた場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに半角英数字を入力時</t>
+  </si>
+  <si>
+    <t>確認するを押すとアカウント登録確認画面に遷移しパスワードに入力値が⚫︎で表示される</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対してひらがなの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して半角英数字以外の行われた場合、パスワードの入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
   </si>
   <si>
     <t>パスワードの入力フォームにいる場合半角から全角に変換できない為問題ないと思っていたが、コピー貼り付けで入力出来てしまった</t>
   </si>
   <si>
-    <t>メールアドレスの入力フォームに対して半角英数字、@、ドット以外の入力が行われた場合</t>
-  </si>
-  <si>
-    <t>メールアドレスの入力フォームに半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）以外の入力時</t>
-  </si>
-  <si>
-    <t>郵便番号の入力フォームに半角数字以外の入力が行われた場合</t>
-  </si>
-  <si>
-    <t>郵便番号の入力フォームに半角英数字以外を入力時</t>
-  </si>
-  <si>
-    <t>住所(市区町村)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の入力行われた場合</t>
-  </si>
-  <si>
-    <t>住所(市区町村)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の入力時</t>
+    <t>パスワードの入力フォームに対して漢字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対してカタカナの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>パスワードの入力フォームに対して記号の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して半角英数字、@、ドットの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）の入力時</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対してひらがなの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームにひらがなの入力時</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して半角英数字、@、ドット以外の入力が行われた場合、入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して漢字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに漢字の入力時</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対してカタカナの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームにカタカナの入力時</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して全角数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに全角数字の入力時</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して半角数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに半角数字以外の入力時</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して半角英字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに半角英字以外の入力時</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して記号（@、ドット）の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに記号@、ドット）の入力時</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに対して記号（@、ドット）以外の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームに記号（@、ドット）以外の入力時</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに半角数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに半角数字を入力時</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームにひらがなの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームにひらがなを入力時</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに半角数字以外の入力が行われた場合、入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに漢字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに漢字を入力時</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームにカタカナの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームにカタカナを入力時</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに全角数字の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに全角数字を入力時</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに記号の入力が行われた場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームに記号を入力時</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームにアルファベットの入力が行われた場合</t>
+  </si>
+  <si>
+    <t>郵便番号の入力フォームにアルファベットを入力時</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）の入力時</t>
   </si>
   <si>
     <t>住所（市区町村）がスペースだけで入力できてしまう</t>
   </si>
   <si>
-    <t>住所(番地)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の入力行われた場合</t>
-  </si>
-  <si>
-    <t>住所(番地)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の入力時</t>
+    <t>住所(市区町村)の入力フォームに対してひらがなの入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対してひらがなの入力時</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して漢字の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して漢字の入力時</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対してカタカナの入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対してカタカナの入力時</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して全角数字の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して全角数字の入力時</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して半角数字入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して半角数字の入力時</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）の入力行われた場合、入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して記号（ハイフンとスペース）の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して記号（ハイフンとスペース）の入力時</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して記号（ハイフンとスペース）以外の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(市区町村)の入力フォームに対して記号（ハイフンとスペース）以外の入力時</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）の入力時</t>
   </si>
   <si>
     <t>（番地）がスペースだけで入力できてしまう</t>
   </si>
   <si>
+    <t>住所(番地)の入力フォームに対してひらがなの入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対してひらがなの入力時</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して漢字の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して漢字の入力時</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対してカタカナの入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対してカタカナの入力時</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して全角数字の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して全角数字の入力時</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して半角数字入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して半角数字の入力時</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対してひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）の入力行われた場合、入力フォームからエラーメッセージが表示され確認をクリックできず遷移できなくなる</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して記号（ハイフンとスペース）の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して記号（ハイフンとスペース）の入力時</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して記号（ハイフンとスペース）以外の入力行われた場合</t>
+  </si>
+  <si>
+    <t>住所(番地)の入力フォームに対して記号（ハイフンとスペース）以外の入力時</t>
+  </si>
+  <si>
     <t>ナビゲーションバーのメニューからアカウント登録フォームに遷移した際、性別の初期が男性が選ばれている事</t>
   </si>
   <si>
@@ -625,103 +948,49 @@
     <t>チェック</t>
   </si>
   <si>
-    <t>各入力フィールドに対して適切なデータを入力し、確認ボタンを押した場合</t>
-  </si>
-  <si>
-    <t>確認ボタンを押した時</t>
-  </si>
-  <si>
-    <t>アカウント登録確認画面に遷移される</t>
-  </si>
-  <si>
-    <t>アカウント登録確認画面から登録ボタンを押した場合</t>
-  </si>
-  <si>
-    <t>登録するボタンを押した時</t>
-  </si>
-  <si>
-    <t>アカウント登録完了画面に遷移される</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>アカウント登録確認画面から登前に戻るボタンを押した場合</t>
-  </si>
-  <si>
-    <t>前の戻るボタンを押した時</t>
-  </si>
-  <si>
-    <t>アカウント登録画面に遷移され、各項目に入力値（アカウント登録確認画面で表示した入力値）をセットされる</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>regist.ph</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>p→regist_confirm.php</t>
-    </r>
-  </si>
-  <si>
-    <t>アカウント登録完了画面からTOPに戻るを押した場合</t>
-  </si>
-  <si>
-    <t>TOPに戻るを押した時</t>
-  </si>
-  <si>
-    <t>DIブログに遷移される</t>
-  </si>
-  <si>
-    <t>確認するをクリックした際の遷移先</t>
-  </si>
-  <si>
-    <t>入力データがデータベースに正しく保存されること</t>
-  </si>
-  <si>
-    <t>値の受け渡し</t>
-  </si>
-  <si>
-    <t>値の表示</t>
-  </si>
-  <si>
-    <t>アカウント登録確認画面からアカウント登録確認画面からブラウザー進むでアカウント登録確認画面へ遷移した場合</t>
-  </si>
-  <si>
-    <t>エラー画面が表示されもう一度アカウント登録画面から入力し直しになる</t>
-  </si>
-  <si>
-    <t>確認するをクリックした際エラーがあったっら遷移できなくなっているか</t>
-  </si>
-  <si>
-    <t>アカウント登録完了からブラウザーの戻るでアカウント登録確認画面へ遷移した場合</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>regist_confirm.php→regist.ph</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>p</t>
-    </r>
+    <t>不具合</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面で入力した名前(姓)フォーム</t>
+  </si>
+  <si>
+    <t>確認するが押された時</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した名前(名)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力したカナ(姓)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力したカナ(名)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力したメールアドレスフォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力したパスワードフォーム</t>
+  </si>
+  <si>
+    <t>パスワードの表示が⚫︎で表示されている事</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した性別フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した郵便番号フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した住所(都道府県)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面入力した住所(市町村)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面で入力した住所(番地)フォーム</t>
+  </si>
+  <si>
+    <t>アカウント登録フォーム画面で入力したアカウント権限フォーム</t>
   </si>
   <si>
     <t>登録確認画面で名前(姓)に表示されている値</t>
@@ -733,9 +1002,6 @@
     <t>データベースに登録される値が名前(姓)表示と同じ値である事</t>
   </si>
   <si>
-    <t>前へ戻るをクリックした際の遷移先</t>
-  </si>
-  <si>
     <t>登録確認画面で名前(名)に表示されている値</t>
   </si>
   <si>
@@ -760,18 +1026,12 @@
     <t>データベースに登録される値がメールアドレス表示と同じ値であるか</t>
   </si>
   <si>
-    <t>regist_confirm.php→regist_complete.php</t>
-  </si>
-  <si>
     <t>登録確認画面でパスワードでの表示</t>
   </si>
   <si>
     <t>データベースに登録されたパスワードの値がハッシュ化されて登録されているか</t>
   </si>
   <si>
-    <t>登録するをクリックした際の遷移先</t>
-  </si>
-  <si>
     <t>登録確認画面で性別の欄に男性が表示されている場合</t>
   </si>
   <si>
@@ -784,27 +1044,18 @@
     <t>データベースに1が登録されているか</t>
   </si>
   <si>
-    <t>データベースへの値の登録</t>
-  </si>
-  <si>
     <t>登録確認画面で郵便番号に表示されている値</t>
   </si>
   <si>
     <t>データベースに登録される値が郵便番号表示と同じ値であるか</t>
   </si>
   <si>
-    <t>DB登録時にエラーが発生する場合メッセージ表示、またエラーの場合にデータベースに登録されないようになっているか</t>
-  </si>
-  <si>
     <t>登録確認画面で住所(都道府県)の欄に表示されている値</t>
   </si>
   <si>
     <t>データベースに登録される値が住所(都道府県)の欄に表示されている値と同じ値であるか</t>
   </si>
   <si>
-    <t>戻るボタンを押した時にregist_confirm.phpに戻れないようになっているか</t>
-  </si>
-  <si>
     <t>登録確認画面で住所(市町村)に表示されている値</t>
   </si>
   <si>
@@ -820,15 +1071,9 @@
     <t>登録確認画面でアカウント権限の欄に一般が表示されている場合</t>
   </si>
   <si>
-    <t>regist_complete.phpか→index.php</t>
-  </si>
-  <si>
     <t>登録確認画面でアカウント権限の欄に管理者が表示されている場合</t>
   </si>
   <si>
-    <t>topページへ戻るをクリックした際の遷移先</t>
-  </si>
-  <si>
     <t>登録ボタンを押され登録完了画面に『アカウントの登録が完了しました。』が表示された時</t>
   </si>
   <si>
@@ -838,6 +1083,9 @@
     <t>データベースdelete_flagカラムに登録ボタンが押された時の0が登録されているか</t>
   </si>
   <si>
+    <t>データベースupdate_timeカラムに登録ボタンが押された時のNULLが登録されているか</t>
+  </si>
+  <si>
     <t>データベースに登録される列のIDに自動で番号が付けられているか</t>
   </si>
   <si>
@@ -847,6 +1095,9 @@
     <t>『エラーが発生したためアカウント登録できません』が表示され、データベースに登録が行われない</t>
   </si>
   <si>
+    <t>エラーにならす登録される</t>
+  </si>
+  <si>
     <t>前へ戻るが押された時</t>
   </si>
   <si>
@@ -889,113 +1140,49 @@
     <t>アカウント権限のラジオボタンが選択が管理者になているか</t>
   </si>
   <si>
-    <t>アカウント登録フォーム画面で入力した名前(姓)フォーム</t>
-  </si>
-  <si>
-    <t>確認するが押された時</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力した名前(名)フォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力したカナ(姓)フォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力したカナ(名)フォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力したメールアドレスフォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力したパスワードフォーム</t>
-  </si>
-  <si>
-    <t>パスワードの表示が⚫︎で表示されている事</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力した性別フォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力した郵便番号フォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力した住所(都道府県)フォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面入力した住所(市町村)フォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面で入力した住所(番地)フォーム</t>
-  </si>
-  <si>
-    <t>アカウント登録フォーム画面で入力したアカウント権限フォーム</t>
-  </si>
-  <si>
     <t>メニューから登録ホームリンクでアカウント登録フォームの画面に遷移した時</t>
   </si>
   <si>
-    <t>不具合</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>システムの機能</t>
-  </si>
-  <si>
-    <t>操作手順</t>
-  </si>
-  <si>
-    <t>メールアドレスフォーム</t>
-  </si>
-  <si>
-    <t>メールアドレスフォーム外観</t>
-  </si>
-  <si>
-    <t>OS:mac</t>
-  </si>
-  <si>
-    <t>住所（市区町村）が１０文字では書き切れない場合がある</t>
-  </si>
-  <si>
-    <t>住所（市区町村）フォーム</t>
-  </si>
-  <si>
-    <t>住所（市区町村）フォーム入力時</t>
-  </si>
-  <si>
-    <t>各フォーム</t>
-  </si>
-  <si>
-    <t>エラーメッセージ表示時</t>
-  </si>
-  <si>
-    <t>パスワード、郵便番号が空の場合に〜〜を入力してくださいでなく、
-このフォームを入力してくださいになっている</t>
-  </si>
-  <si>
-    <t>パスワード、郵便番号フォーム</t>
-  </si>
-  <si>
-    <t>パスワード、郵便番号フォーム入力時</t>
-  </si>
-  <si>
-    <t>住所（市区町村）、（番地）がスペースだけで入力できてしまう</t>
-  </si>
-  <si>
-    <t>住所（市区町村）、（番地）フォーム</t>
-  </si>
-  <si>
-    <t>住所（市区町村）、（番地）フォーム入力時</t>
-  </si>
-  <si>
-    <t>住所（番地）は半角数字と半角ハイフンも入力できるべき</t>
-  </si>
-  <si>
-    <t>住所（番地）フォーム</t>
-  </si>
-  <si>
-    <t>住所（番地）フォーム入力時</t>
+    <t>登録完了画面からTOPへ戻るボタン</t>
+  </si>
+  <si>
+    <t>TOPへ戻るが押された時</t>
+  </si>
+  <si>
+    <t>DIブログのトップページへ遷移する</t>
+  </si>
+  <si>
+    <t>ブラウザーの戻るボタンが押された時</t>
+  </si>
+  <si>
+    <t>ブラウザーの戻るボタンで登録確認画面が表示された時</t>
+  </si>
+  <si>
+    <t>エラー画面が表示される</t>
+  </si>
+  <si>
+    <t>ブラウザーの進むボタンが押された時</t>
+  </si>
+  <si>
+    <t>ブラウザーの進むボタンで登録確認画面が表示された時</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面にエラーが発生したためアカウント登録できませんが表示された場合</t>
+  </si>
+  <si>
+    <t>登録を押してアカウント登録完了画面にエラーが発生したためアカウント登録できませんが表示された時</t>
+  </si>
+  <si>
+    <t>データベースに新たな列増えていない状態</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に登録が完了しましたが表示された場合</t>
+  </si>
+  <si>
+    <t>登録を押してアカウント登録完了画面に登録が完了しましたが表示された時</t>
+  </si>
+  <si>
+    <t>データベースに新たな列が作成される</t>
   </si>
   <si>
     <t>アカウント登録`を対象とした、`単体テスト`と`結合テスト`を実施してください</t>
@@ -1165,7 +1352,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="m月d日"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1199,11 +1386,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
@@ -1250,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1281,6 +1463,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1288,10 +1476,10 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1299,9 +1487,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1321,10 +1506,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1533,8 +1714,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.5"/>
-    <col customWidth="1" min="2" max="2" width="64.5"/>
-    <col customWidth="1" min="3" max="3" width="54.0"/>
+    <col customWidth="1" min="2" max="2" width="67.0"/>
+    <col customWidth="1" min="3" max="3" width="57.88"/>
     <col customWidth="1" min="4" max="4" width="83.88"/>
     <col customWidth="1" min="5" max="5" width="9.5"/>
     <col customWidth="1" min="6" max="6" width="10.13"/>
@@ -2436,58 +2617,50 @@
       <c r="A34" s="1">
         <v>31.0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>45324.0</v>
+      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>32.0</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>45324.0</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2495,13 +2668,13 @@
         <v>33.0</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -2529,14 +2702,12 @@
       <c r="C37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>15</v>
@@ -2552,20 +2723,18 @@
       <c r="A38" s="1">
         <v>35.0</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>15</v>
@@ -2576,26 +2745,23 @@
       <c r="I38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>36.0</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>15</v>
@@ -2605,23 +2771,20 @@
       </c>
       <c r="I39" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
         <v>37.0</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -2643,29 +2806,24 @@
       <c r="A41" s="1">
         <v>38.0</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
+        <v>45324.0</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2673,19 +2831,17 @@
         <v>39.0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>15</v>
@@ -2695,104 +2851,101 @@
       </c>
       <c r="I42" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>40.0</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
         <v>41.0</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B44" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
         <v>42.0</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>43.0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>118</v>
+      <c r="B46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -2812,25 +2965,26 @@
         <v>44.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2838,51 +2992,53 @@
         <v>45.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>46.0</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2890,25 +3046,26 @@
         <v>47.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2916,39 +3073,40 @@
         <v>48.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
         <v>49.0</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>135</v>
+      <c r="B52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
@@ -2962,149 +3120,160 @@
       <c r="I52" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="1">
         <v>50.0</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="1">
         <v>51.0</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="1">
         <v>52.0</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>53.0</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>54.0</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="1">
         <v>55.0</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
@@ -3118,149 +3287,170 @@
       <c r="I58" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="1">
         <v>56.0</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="3">
-        <v>45323.0</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
         <v>57.0</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>148</v>
+      <c r="B60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
         <v>58.0</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>148</v>
+      <c r="B61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
         <v>59.0</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>148</v>
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
         <v>60.0</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>148</v>
+      <c r="B63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
         <v>61.0</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>148</v>
+      <c r="B64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>14</v>
@@ -3279,99 +3469,101 @@
       <c r="A65" s="1">
         <v>62.0</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>162</v>
+      <c r="B65" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
         <v>63.0</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>164</v>
+      <c r="B66" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
         <v>64.0</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>166</v>
+      <c r="B67" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
         <v>65.0</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>168</v>
+      <c r="B68" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="3">
-        <v>45323.0</v>
-      </c>
+        <v>45324.0</v>
+      </c>
+      <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
         <v>16</v>
       </c>
@@ -3383,43 +3575,48 @@
       <c r="A69" s="1">
         <v>66.0</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>170</v>
+      <c r="B69" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
         <v>67.0</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>173</v>
+      <c r="B70" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>16</v>
@@ -3432,17 +3629,21 @@
       <c r="A71" s="1">
         <v>68.0</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>173</v>
+      <c r="B71" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>14</v>
+        <v>159</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>16</v>
@@ -3455,18 +3656,20 @@
       <c r="A72" s="1">
         <v>69.0</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="B72" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
         <v>16</v>
       </c>
@@ -3478,66 +3681,74 @@
       <c r="A73" s="1">
         <v>70.0</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>173</v>
+      <c r="B73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F73" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
         <v>71.0</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>173</v>
+      <c r="B74" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I74" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
         <v>72.0</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>173</v>
+      <c r="B75" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="3">
-        <v>45323.0</v>
+        <v>45324.0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>16</v>
@@ -3550,194 +3761,262 @@
       <c r="A76" s="1">
         <v>73.0</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>173</v>
+      <c r="B76" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I76" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
         <v>74.0</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>173</v>
+      <c r="B77" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I77" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
         <v>75.0</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>173</v>
+      <c r="B78" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
         <v>76.0</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>173</v>
+      <c r="B79" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
         <v>77.0</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>193</v>
+      <c r="B80" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F80" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
         <v>78.0</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>173</v>
+      <c r="B81" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I81" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1">
         <v>79.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I82" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1">
         <v>80.0</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I83" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1">
         <v>81.0</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I84" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1">
         <v>82.0</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>14</v>
+      <c r="B85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>16</v>
@@ -3745,27 +4024,53 @@
       <c r="I85" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1">
         <v>83.0</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I86" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1">
         <v>84.0</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>14</v>
+      <c r="B87" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>16</v>
@@ -3773,83 +4078,162 @@
       <c r="I87" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1">
         <v>85.0</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F88" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I88" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
         <v>86.0</v>
       </c>
+      <c r="B89" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E89" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F89" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I89" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
         <v>87.0</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
         <v>88.0</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F91" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I91" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
         <v>89.0</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E92" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F92" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
         <v>90.0</v>
       </c>
+      <c r="B93" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="E93" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F93" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>16</v>
@@ -3862,22 +4246,49 @@
       <c r="A94" s="1">
         <v>91.0</v>
       </c>
+      <c r="B94" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E94" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F94" s="3">
+        <v>45324.0</v>
+      </c>
       <c r="H94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I94" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
         <v>92.0</v>
       </c>
+      <c r="B95" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="E95" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F95" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>16</v>
@@ -3890,113 +4301,1052 @@
       <c r="A96" s="1">
         <v>93.0</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="E96" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F96" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I96" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
         <v>94.0</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="E97" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F97" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I97" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
         <v>95.0</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="E98" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F98" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I98" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
         <v>96.0</v>
       </c>
+      <c r="B99" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="E99" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F99" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I99" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
         <v>97.0</v>
       </c>
+      <c r="B100" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="E100" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F100" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I100" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
         <v>98.0</v>
       </c>
+      <c r="B101" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F101" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
         <v>99.0</v>
       </c>
+      <c r="B102" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E102" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F102" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I102" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
         <v>100.0</v>
       </c>
+      <c r="B103" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F103" s="3">
+        <v>45323.0</v>
+      </c>
       <c r="H103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I103" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="3">
+        <v>45323.0</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="3">
+        <v>45324.0</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" s="2"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="E146" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4014,15 +5364,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="49.5"/>
-    <col customWidth="1" min="3" max="3" width="34.63"/>
-    <col customWidth="1" min="4" max="4" width="26.5"/>
+    <col customWidth="1" min="3" max="3" width="45.88"/>
+    <col customWidth="1" min="4" max="4" width="33.63"/>
     <col customWidth="1" min="7" max="8" width="19.5"/>
     <col customWidth="1" min="9" max="9" width="7.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
@@ -4030,7 +5380,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -4054,2206 +5404,2026 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>202</v>
+        <v>310</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
-        <v>203</v>
+      <c r="A4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>313</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="b">
-        <v>0</v>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>206</v>
+      <c r="A5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>313</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>202</v>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1" t="s">
-        <v>210</v>
+      <c r="A6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>212</v>
+        <v>313</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>213</v>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>216</v>
+      <c r="A7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R7" s="1" t="b">
+      <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
-        <v>218</v>
+      <c r="A8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F8" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R8" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4"/>
     </row>
     <row r="9">
+      <c r="A9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R9" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10">
-      <c r="B10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>222</v>
+      <c r="A10" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F10" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R10" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11">
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>222</v>
+      <c r="A11" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F11" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12">
+      <c r="A12" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F12" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13">
+      <c r="A13" s="1">
+        <v>10.0</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F13" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R13" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14">
+      <c r="A14" s="1">
+        <v>11.0</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F14" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R14" s="1" t="b">
+      <c r="I14" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="1">
+        <v>12.0</v>
+      </c>
       <c r="B15" s="5" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F15" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R15" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4"/>
     </row>
     <row r="16">
+      <c r="A16" s="1">
+        <v>13.0</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>227</v>
+        <v>327</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F16" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1"/>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="7"/>
     </row>
     <row r="17">
+      <c r="A17" s="1">
+        <v>14.0</v>
+      </c>
       <c r="B17" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C54" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="C55" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R19" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C58" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R20" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="C59" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R21" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45325.0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C61" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R22" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>45321.0</v>
-      </c>
-      <c r="R26" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="D45" s="5"/>
-      <c r="E45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F61" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I61" s="10" t="b">
-        <v>0</v>
+      <c r="I61" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>125</v>
+      <c r="A62" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F62" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="10" t="b">
-        <v>0</v>
+      <c r="I62" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="5" t="s">
-        <v>126</v>
+      <c r="A63" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>127</v>
+        <v>380</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F63" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="10" t="b">
-        <v>0</v>
+      <c r="I63" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="5" t="s">
-        <v>128</v>
+      <c r="A64" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>129</v>
+        <v>383</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F64" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="10" t="b">
-        <v>0</v>
+      <c r="I64" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
+      <c r="A65" s="1">
+        <v>62.0</v>
+      </c>
       <c r="B65" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>131</v>
+        <v>384</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F65" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I65" s="10" t="b">
-        <v>0</v>
+      <c r="I65" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
+      <c r="A66" s="1">
+        <v>63.0</v>
+      </c>
       <c r="B66" s="5" t="s">
-        <v>132</v>
+        <v>387</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>133</v>
+        <v>388</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F66" s="3">
+        <v>45325.0</v>
+      </c>
       <c r="H66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="10" t="b">
-        <v>0</v>
+      <c r="I66" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F67" s="3"/>
       <c r="H67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I67" s="10" t="b">
+      <c r="I67" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="10" t="b">
+      <c r="I68" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="10" t="b">
+      <c r="I69" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I70" s="10" t="b">
+      <c r="I70" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I71" s="10" t="b">
+      <c r="I71" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="10" t="b">
+      <c r="I72" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="10" t="b">
+      <c r="I73" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="10" t="b">
+      <c r="I74" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I75" s="10" t="b">
+      <c r="I75" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="10" t="b">
+      <c r="I76" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B77" s="5"/>
+      <c r="D77" s="5"/>
       <c r="H77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="10" t="b">
+      <c r="I77" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B78" s="5"/>
+      <c r="D78" s="5"/>
       <c r="H78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I78" s="10" t="b">
+      <c r="I78" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D79" s="5"/>
       <c r="H79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="10" t="b">
+      <c r="I79" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B80" s="5"/>
+      <c r="D80" s="5"/>
       <c r="H80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="10" t="b">
+      <c r="I80" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B81" s="5"/>
+      <c r="D81" s="5"/>
       <c r="H81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="10" t="b">
+      <c r="I81" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B82" s="5"/>
+      <c r="D82" s="5"/>
       <c r="H82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I82" s="10" t="b">
+      <c r="I82" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B83" s="5"/>
+      <c r="D83" s="5"/>
       <c r="H83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="10" t="b">
+      <c r="I83" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B84" s="5"/>
+      <c r="D84" s="5"/>
       <c r="H84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="10" t="b">
+      <c r="I84" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B85" s="5"/>
+      <c r="D85" s="5"/>
       <c r="H85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="10" t="b">
+      <c r="I85" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="10" t="b">
+      <c r="I86" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D87" s="5"/>
       <c r="H87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="10" t="b">
+      <c r="I87" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D88" s="5"/>
       <c r="H88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I88" s="10" t="b">
+      <c r="I88" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H89" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="10" t="b">
+      <c r="I89" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B90" s="5"/>
+      <c r="D90" s="5"/>
       <c r="H90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="10" t="b">
+      <c r="I90" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B91" s="5"/>
+      <c r="D91" s="5"/>
       <c r="H91" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="10" t="b">
+      <c r="I91" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B92" s="5"/>
+      <c r="D92" s="5"/>
       <c r="H92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I92" s="10" t="b">
+      <c r="I92" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="B93" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B93" s="5"/>
+      <c r="D93" s="5"/>
       <c r="H93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="10" t="b">
+      <c r="I93" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B94" s="5"/>
+      <c r="D94" s="5"/>
       <c r="H94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="10" t="b">
+      <c r="I94" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="95">
-      <c r="B95" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B95" s="5"/>
+      <c r="D95" s="5"/>
       <c r="H95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I95" s="10" t="b">
+      <c r="I95" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="B96" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B96" s="5"/>
+      <c r="D96" s="5"/>
       <c r="H96" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I96" s="10" t="b">
+      <c r="I96" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="E97" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B97" s="5"/>
+      <c r="D97" s="5"/>
       <c r="H97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I97" s="10" t="b">
+      <c r="I97" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="E98" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B98" s="5"/>
+      <c r="D98" s="5"/>
       <c r="H98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I98" s="10" t="b">
+      <c r="I98" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="E99" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B99" s="5"/>
+      <c r="D99" s="5"/>
       <c r="H99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I99" s="10" t="b">
+      <c r="I99" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="E100" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B100" s="5"/>
       <c r="H100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="10" t="b">
+      <c r="I100" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="E101" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="10" t="b">
+      <c r="I101" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="E102" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="10" t="b">
+      <c r="I102" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="E103" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="O6"/>
-    <hyperlink r:id="rId2" ref="O12"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="52.63"/>
-    <col customWidth="1" min="2" max="2" width="39.0"/>
-    <col customWidth="1" min="3" max="3" width="50.38"/>
-    <col customWidth="1" min="5" max="5" width="33.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>302</v>
-      </c>
+      <c r="I103" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6268,275 +7438,275 @@
   <sheetData>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>317</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>319</v>
+      <c r="A3" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>321</v>
+      <c r="A4" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>323</v>
+      <c r="A5" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>324</v>
+      <c r="A7" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>325</v>
+      <c r="A8" s="13" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>326</v>
+      <c r="A9" s="13" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>327</v>
+      <c r="A10" s="13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>328</v>
+      <c r="A11" s="13" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="14"/>
+      <c r="A12" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="15"/>
+      <c r="A13" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>331</v>
+      <c r="A14" s="13" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>332</v>
+      <c r="A16" s="13" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>333</v>
+      <c r="A17" s="13" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>334</v>
+      <c r="A18" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>335</v>
+      <c r="A19" s="13" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>336</v>
+      <c r="A20" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>338</v>
+      <c r="A23" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>340</v>
+      <c r="A24" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>342</v>
+      <c r="A25" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13">
+      <c r="A29" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="s">
-        <v>343</v>
+      <c r="A37" s="18" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
-        <v>344</v>
+      <c r="A38" s="16" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
-        <v>345</v>
+      <c r="A39" s="16" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="s">
-        <v>346</v>
+      <c r="A40" s="16" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="18" t="s">
-        <v>347</v>
+      <c r="A41" s="19" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
-        <v>348</v>
+      <c r="A42" s="16" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="s">
-        <v>349</v>
+      <c r="A43" s="16" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
-        <v>350</v>
+      <c r="A44" s="16" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
-        <v>351</v>
+      <c r="A45" s="16" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
-        <v>352</v>
+      <c r="A46" s="16" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="s">
-        <v>351</v>
+      <c r="A47" s="16" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="s">
-        <v>352</v>
+      <c r="A48" s="16" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="15" t="s">
-        <v>354</v>
+      <c r="A53" s="16" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
-        <v>355</v>
+      <c r="A54" s="16" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="15" t="s">
-        <v>356</v>
+      <c r="A55" s="16" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="18" t="s">
-        <v>357</v>
+      <c r="A56" s="19" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="s">
-        <v>358</v>
+      <c r="A57" s="16" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="s">
-        <v>359</v>
+      <c r="A58" s="16" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="s">
-        <v>360</v>
+      <c r="A59" s="16" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="17" t="s">
-        <v>361</v>
+      <c r="A63" s="18" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="15" t="s">
-        <v>362</v>
+      <c r="A64" s="16" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="15" t="s">
-        <v>363</v>
+      <c r="A65" s="16" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="s">
-        <v>364</v>
+      <c r="A66" s="16" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="18" t="s">
-        <v>365</v>
+      <c r="A67" s="19" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="15" t="s">
-        <v>366</v>
+      <c r="A68" s="16" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="15" t="s">
-        <v>367</v>
+      <c r="A69" s="16" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="15" t="s">
-        <v>368</v>
+      <c r="A70" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/資料/Registrationテスト .xlsx
+++ b/資料/Registrationテスト .xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="444">
   <si>
     <t>単体テスト</t>
   </si>
@@ -48,6 +48,9 @@
     <t>不具合内容</t>
   </si>
   <si>
+    <t>不具合修正</t>
+  </si>
+  <si>
     <t>名前（姓）の入力フォームに対して入力文字数が最大10字以内でない場合</t>
   </si>
   <si>
@@ -265,6 +268,9 @@
   </si>
   <si>
     <t>メールアドレスの項目だけ入力可能文字が表示されていない</t>
+  </si>
+  <si>
+    <t>⚪︎</t>
   </si>
   <si>
     <t>郵便番号の入力フォームが未入力の場合</t>
@@ -1762,34 +1768,37 @@
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>45323.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1798,28 +1807,28 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
         <v>45323.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1827,28 +1836,28 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3">
         <v>45323.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1856,28 +1865,28 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
         <v>45323.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1885,28 +1894,28 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
         <v>45323.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1914,28 +1923,28 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3">
         <v>45323.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1943,28 +1952,28 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <v>45323.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1972,28 +1981,28 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3">
         <v>45323.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2001,28 +2010,28 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3">
         <v>45323.0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6"/>
     </row>
@@ -2031,28 +2040,28 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3">
         <v>45323.0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2060,22 +2069,22 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3">
         <v>45324.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
@@ -2086,22 +2095,22 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3">
         <v>45324.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
@@ -2112,22 +2121,22 @@
         <v>13.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3">
         <v>45324.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
@@ -2138,22 +2147,22 @@
         <v>14.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3">
         <v>45324.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -2164,22 +2173,22 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3">
         <v>45324.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -2190,22 +2199,22 @@
         <v>16.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
         <v>45324.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -2216,22 +2225,22 @@
         <v>17.0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3">
         <v>45324.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -2242,22 +2251,22 @@
         <v>18.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3">
         <v>45324.0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -2268,22 +2277,22 @@
         <v>19.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
         <v>45324.0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
@@ -2294,22 +2303,22 @@
         <v>20.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="3">
         <v>45324.0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
@@ -2320,28 +2329,25 @@
         <v>21.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2349,28 +2355,25 @@
         <v>22.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2378,28 +2381,25 @@
         <v>23.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="7"/>
@@ -2409,28 +2409,25 @@
         <v>24.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="7"/>
     </row>
@@ -2439,28 +2436,25 @@
         <v>25.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="7"/>
     </row>
@@ -2469,31 +2463,31 @@
         <v>26.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="M29" s="7"/>
     </row>
@@ -2502,57 +2496,52 @@
         <v>27.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>28.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2560,28 +2549,25 @@
         <v>29.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2589,28 +2575,25 @@
         <v>30.0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2618,21 +2601,20 @@
         <v>31.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>1</v>
@@ -2643,21 +2625,20 @@
         <v>32.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>1</v>
@@ -2668,28 +2649,25 @@
         <v>33.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2697,26 +2675,23 @@
         <v>34.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I37" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2724,26 +2699,23 @@
         <v>35.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2751,26 +2723,23 @@
         <v>36.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I39" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2778,28 +2747,25 @@
         <v>37.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" s="3">
         <v>45323.0</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2807,20 +2773,20 @@
         <v>38.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3">
         <v>45324.0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>1</v>
@@ -2831,26 +2797,23 @@
         <v>39.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2858,26 +2821,23 @@
         <v>40.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2885,26 +2845,23 @@
         <v>41.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2912,26 +2869,23 @@
         <v>42.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2939,22 +2893,22 @@
         <v>43.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="3">
         <v>45323.0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>1</v>
@@ -2965,26 +2919,23 @@
         <v>44.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2992,26 +2943,23 @@
         <v>45.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3019,26 +2967,23 @@
         <v>46.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3046,26 +2991,23 @@
         <v>47.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3073,26 +3015,23 @@
         <v>48.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3100,22 +3039,22 @@
         <v>49.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" s="3">
         <v>45323.0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>1</v>
@@ -3127,26 +3066,23 @@
         <v>50.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="5"/>
     </row>
@@ -3155,26 +3091,23 @@
         <v>51.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="5"/>
     </row>
@@ -3183,26 +3116,23 @@
         <v>52.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="5"/>
     </row>
@@ -3211,26 +3141,23 @@
         <v>53.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="5"/>
     </row>
@@ -3239,26 +3166,23 @@
         <v>54.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="5"/>
     </row>
@@ -3267,22 +3191,22 @@
         <v>55.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" s="3">
         <v>45323.0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I58" s="1" t="b">
         <v>1</v>
@@ -3294,29 +3218,29 @@
         <v>56.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -3324,29 +3248,29 @@
         <v>57.0</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="61">
@@ -3354,29 +3278,29 @@
         <v>58.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62">
@@ -3384,29 +3308,29 @@
         <v>59.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -3414,29 +3338,29 @@
         <v>60.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -3444,22 +3368,22 @@
         <v>61.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F64" s="3">
         <v>45323.0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I64" s="1" t="b">
         <v>1</v>
@@ -3470,26 +3394,23 @@
         <v>62.0</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3497,26 +3418,23 @@
         <v>63.0</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3524,26 +3442,23 @@
         <v>64.0</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3551,21 +3466,20 @@
         <v>65.0</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I68" s="1" t="b">
         <v>1</v>
@@ -3576,26 +3490,23 @@
         <v>66.0</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3603,26 +3514,23 @@
         <v>67.0</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3630,26 +3538,23 @@
         <v>68.0</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3657,24 +3562,23 @@
         <v>69.0</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3682,22 +3586,22 @@
         <v>70.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F73" s="3">
         <v>45323.0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I73" s="1" t="b">
         <v>1</v>
@@ -3708,23 +3612,20 @@
         <v>71.0</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I74" s="1" t="b">
         <v>1</v>
@@ -3735,23 +3636,20 @@
         <v>72.0</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I75" s="1" t="b">
         <v>1</v>
@@ -3762,23 +3660,20 @@
         <v>73.0</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I76" s="1" t="b">
         <v>1</v>
@@ -3789,23 +3684,20 @@
         <v>74.0</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I77" s="1" t="b">
         <v>1</v>
@@ -3816,23 +3708,20 @@
         <v>75.0</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I78" s="1" t="b">
         <v>1</v>
@@ -3843,23 +3732,20 @@
         <v>76.0</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I79" s="1" t="b">
         <v>1</v>
@@ -3870,28 +3756,28 @@
         <v>77.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F80" s="3">
         <v>45323.0</v>
       </c>
+      <c r="G80" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="H80" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3899,13 +3785,13 @@
         <v>78.0</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="3">
@@ -3913,7 +3799,7 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I81" s="1" t="b">
         <v>1</v>
@@ -3925,13 +3811,13 @@
         <v>79.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="3">
@@ -3939,7 +3825,7 @@
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I82" s="1" t="b">
         <v>1</v>
@@ -3951,13 +3837,13 @@
         <v>80.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3">
@@ -3965,10 +3851,10 @@
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I83" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="1"/>
     </row>
@@ -3977,13 +3863,13 @@
         <v>81.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="3">
@@ -3991,7 +3877,7 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I84" s="1" t="b">
         <v>1</v>
@@ -4003,26 +3889,23 @@
         <v>82.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I85" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="1"/>
     </row>
@@ -4031,13 +3914,13 @@
         <v>83.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="3">
@@ -4045,7 +3928,7 @@
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I86" s="1" t="b">
         <v>1</v>
@@ -4057,26 +3940,23 @@
         <v>84.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="1"/>
     </row>
@@ -4085,28 +3965,28 @@
         <v>85.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F88" s="3">
         <v>45323.0</v>
       </c>
+      <c r="G88" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="H88" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I88" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4114,22 +3994,22 @@
         <v>86.0</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F89" s="3">
         <v>45324.0</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I89" s="1" t="b">
         <v>1</v>
@@ -4140,22 +4020,22 @@
         <v>87.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F90" s="3">
         <v>45324.0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I90" s="1" t="b">
         <v>1</v>
@@ -4166,22 +4046,22 @@
         <v>88.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F91" s="3">
         <v>45324.0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I91" s="1" t="b">
         <v>1</v>
@@ -4192,22 +4072,22 @@
         <v>89.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F92" s="3">
         <v>45324.0</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I92" s="1" t="b">
         <v>1</v>
@@ -4218,28 +4098,25 @@
         <v>90.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F93" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -4247,22 +4124,22 @@
         <v>91.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F94" s="3">
         <v>45324.0</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I94" s="1" t="b">
         <v>1</v>
@@ -4273,28 +4150,25 @@
         <v>92.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F95" s="3">
         <v>45324.0</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I95" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4302,22 +4176,22 @@
         <v>93.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F96" s="3">
         <v>45323.0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I96" s="1" t="b">
         <v>1</v>
@@ -4328,22 +4202,22 @@
         <v>94.0</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="D97" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F97" s="3">
         <v>45323.0</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I97" s="1" t="b">
         <v>1</v>
@@ -4354,22 +4228,22 @@
         <v>95.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F98" s="3">
         <v>45323.0</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I98" s="1" t="b">
         <v>1</v>
@@ -4380,22 +4254,22 @@
         <v>96.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F99" s="3">
         <v>45323.0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I99" s="1" t="b">
         <v>1</v>
@@ -4406,22 +4280,22 @@
         <v>97.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F100" s="3">
         <v>45323.0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I100" s="1" t="b">
         <v>1</v>
@@ -4432,22 +4306,22 @@
         <v>98.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F101" s="3">
         <v>45323.0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I101" s="1" t="b">
         <v>1</v>
@@ -4458,22 +4332,22 @@
         <v>99.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F102" s="3">
         <v>45323.0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I102" s="1" t="b">
         <v>1</v>
@@ -4484,22 +4358,22 @@
         <v>100.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F103" s="3">
         <v>45323.0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I103" s="1" t="b">
         <v>1</v>
@@ -4510,22 +4384,22 @@
         <v>101.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F104" s="3">
         <v>45323.0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I104" s="1" t="b">
         <v>1</v>
@@ -4536,22 +4410,22 @@
         <v>102.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F105" s="3">
         <v>45323.0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I105" s="1" t="b">
         <v>1</v>
@@ -4562,22 +4436,22 @@
         <v>103.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F106" s="3">
         <v>45323.0</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I106" s="1" t="b">
         <v>1</v>
@@ -4588,22 +4462,22 @@
         <v>104.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F107" s="3">
         <v>45323.0</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I107" s="1" t="b">
         <v>1</v>
@@ -4614,22 +4488,22 @@
         <v>105.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F108" s="3">
         <v>45323.0</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I108" s="1" t="b">
         <v>1</v>
@@ -4640,22 +4514,22 @@
         <v>106.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F109" s="3">
         <v>45323.0</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I109" s="1" t="b">
         <v>1</v>
@@ -4666,22 +4540,22 @@
         <v>107.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F110" s="3">
         <v>45323.0</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I110" s="1" t="b">
         <v>1</v>
@@ -4692,22 +4566,22 @@
         <v>108.0</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="D111" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F111" s="3">
         <v>45323.0</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I111" s="1" t="b">
         <v>1</v>
@@ -4718,22 +4592,22 @@
         <v>109.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F112" s="3">
         <v>45323.0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I112" s="1" t="b">
         <v>1</v>
@@ -4744,22 +4618,22 @@
         <v>110.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F113" s="3">
         <v>45323.0</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I113" s="1" t="b">
         <v>1</v>
@@ -4770,22 +4644,22 @@
         <v>111.0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F114" s="3">
         <v>45323.0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I114" s="1" t="b">
         <v>1</v>
@@ -4796,22 +4670,22 @@
         <v>112.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F115" s="3">
         <v>45323.0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I115" s="1" t="b">
         <v>1</v>
@@ -4822,22 +4696,22 @@
         <v>113.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F116" s="3">
         <v>45323.0</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I116" s="1" t="b">
         <v>1</v>
@@ -4848,22 +4722,22 @@
         <v>114.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F117" s="3">
         <v>45323.0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I117" s="1" t="b">
         <v>1</v>
@@ -4874,22 +4748,22 @@
         <v>115.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F118" s="3">
         <v>45323.0</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I118" s="1" t="b">
         <v>1</v>
@@ -4900,22 +4774,22 @@
         <v>116.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F119" s="3">
         <v>45323.0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I119" s="1" t="b">
         <v>1</v>
@@ -4926,22 +4800,22 @@
         <v>117.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F120" s="3">
         <v>45323.0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I120" s="1" t="b">
         <v>1</v>
@@ -4952,22 +4826,22 @@
         <v>118.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F121" s="3">
         <v>45323.0</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I121" s="1" t="b">
         <v>1</v>
@@ -4978,22 +4852,22 @@
         <v>119.0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F122" s="3">
         <v>45324.0</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I122" s="1" t="b">
         <v>1</v>
@@ -5004,22 +4878,22 @@
         <v>120.0</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="D123" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F123" s="3">
         <v>45324.0</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I123" s="1" t="b">
         <v>1</v>
@@ -5030,22 +4904,22 @@
         <v>121.0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F124" s="3">
         <v>45324.0</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I124" s="1" t="b">
         <v>1</v>
@@ -5056,22 +4930,22 @@
         <v>122.0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F125" s="3">
         <v>45324.0</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I125" s="1" t="b">
         <v>1</v>
@@ -5082,22 +4956,22 @@
         <v>123.0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F126" s="3">
         <v>45324.0</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I126" s="1" t="b">
         <v>1</v>
@@ -5108,22 +4982,22 @@
         <v>124.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F127" s="3">
         <v>45323.0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I127" s="1" t="b">
         <v>1</v>
@@ -5134,22 +5008,22 @@
         <v>125.0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F128" s="3">
         <v>45324.0</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I128" s="1" t="b">
         <v>1</v>
@@ -5160,22 +5034,22 @@
         <v>126.0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F129" s="3">
         <v>45324.0</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I129" s="1" t="b">
         <v>1</v>
@@ -5186,22 +5060,22 @@
         <v>127.0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F130" s="3">
         <v>45324.0</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I130" s="1" t="b">
         <v>1</v>
@@ -5212,22 +5086,22 @@
         <v>128.0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F131" s="3">
         <v>45324.0</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I131" s="1" t="b">
         <v>1</v>
@@ -5238,22 +5112,22 @@
         <v>129.0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F132" s="3">
         <v>45324.0</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I132" s="1" t="b">
         <v>1</v>
@@ -5264,22 +5138,22 @@
         <v>130.0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F133" s="3">
         <v>45324.0</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I133" s="1" t="b">
         <v>1</v>
@@ -5290,22 +5164,22 @@
         <v>131.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F134" s="3">
         <v>45325.0</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I134" s="1" t="b">
         <v>1</v>
@@ -5372,7 +5246,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
@@ -5380,7 +5254,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -5404,10 +5278,13 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -5415,22 +5292,22 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>45325.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
@@ -5441,22 +5318,22 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
         <v>45325.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
@@ -5467,22 +5344,22 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3">
         <v>45325.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
@@ -5493,22 +5370,22 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
         <v>45325.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
@@ -5519,22 +5396,22 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
         <v>45325.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
@@ -5546,22 +5423,22 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3">
         <v>45325.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
@@ -5573,22 +5450,22 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <v>45325.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -5600,22 +5477,22 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3">
         <v>45325.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -5627,22 +5504,22 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3">
         <v>45325.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -5654,22 +5531,22 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3">
         <v>45325.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -5681,22 +5558,22 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3">
         <v>45325.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
@@ -5707,22 +5584,22 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3">
         <v>45325.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
@@ -5734,22 +5611,22 @@
         <v>13.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3">
         <v>45325.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
@@ -5762,22 +5639,22 @@
         <v>14.0</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3">
         <v>45325.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -5790,22 +5667,22 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3">
         <v>45325.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -5818,22 +5695,22 @@
         <v>16.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
         <v>45325.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -5846,22 +5723,22 @@
         <v>17.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3">
         <v>45325.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -5872,22 +5749,22 @@
         <v>18.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3">
         <v>45325.0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -5900,22 +5777,22 @@
         <v>19.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
         <v>45325.0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
@@ -5928,22 +5805,22 @@
         <v>20.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="3">
         <v>45325.0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
@@ -5956,22 +5833,22 @@
         <v>21.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="3">
         <v>45325.0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
@@ -5984,22 +5861,22 @@
         <v>22.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="3">
         <v>45325.0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -6012,22 +5889,22 @@
         <v>23.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="3">
         <v>45325.0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -6038,22 +5915,22 @@
         <v>24.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="3">
         <v>45325.0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -6064,22 +5941,22 @@
         <v>25.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="3">
         <v>45325.0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
@@ -6090,22 +5967,22 @@
         <v>26.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="3">
         <v>45325.0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
@@ -6118,22 +5995,22 @@
         <v>27.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="3">
         <v>45325.0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>1</v>
@@ -6144,22 +6021,22 @@
         <v>28.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="3">
         <v>45325.0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>1</v>
@@ -6170,22 +6047,22 @@
         <v>29.0</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="3">
         <v>45325.0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1" t="b">
         <v>1</v>
@@ -6196,22 +6073,22 @@
         <v>30.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3">
         <v>45325.0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" s="1" t="b">
         <v>1</v>
@@ -6222,28 +6099,31 @@
         <v>31.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34" s="3">
         <v>45325.0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I34" s="12" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -6251,22 +6131,22 @@
         <v>32.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="3">
         <v>45325.0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>1</v>
@@ -6277,22 +6157,22 @@
         <v>33.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" s="3">
         <v>45325.0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1" t="b">
         <v>1</v>
@@ -6303,22 +6183,22 @@
         <v>34.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F37" s="3">
         <v>45325.0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>1</v>
@@ -6329,22 +6209,22 @@
         <v>35.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" s="3">
         <v>45325.0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>1</v>
@@ -6355,22 +6235,22 @@
         <v>36.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" s="3">
         <v>45325.0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>1</v>
@@ -6381,22 +6261,22 @@
         <v>37.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" s="3">
         <v>45325.0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="b">
         <v>1</v>
@@ -6407,22 +6287,22 @@
         <v>38.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="3">
         <v>45325.0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>1</v>
@@ -6433,22 +6313,22 @@
         <v>39.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42" s="3">
         <v>45325.0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="b">
         <v>1</v>
@@ -6459,22 +6339,22 @@
         <v>40.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="3">
         <v>45325.0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>1</v>
@@ -6485,22 +6365,22 @@
         <v>41.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F44" s="3">
         <v>45325.0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I44" s="1" t="b">
         <v>1</v>
@@ -6511,22 +6391,22 @@
         <v>42.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F45" s="3">
         <v>45325.0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>1</v>
@@ -6537,22 +6417,22 @@
         <v>43.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="3">
         <v>45325.0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>1</v>
@@ -6563,22 +6443,22 @@
         <v>44.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" s="3">
         <v>45325.0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1" t="b">
         <v>1</v>
@@ -6589,22 +6469,22 @@
         <v>45.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48" s="3">
         <v>45325.0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1" t="b">
         <v>1</v>
@@ -6615,22 +6495,22 @@
         <v>46.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" s="3">
         <v>45325.0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>1</v>
@@ -6641,22 +6521,22 @@
         <v>47.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="3">
         <v>45325.0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I50" s="1" t="b">
         <v>1</v>
@@ -6667,22 +6547,22 @@
         <v>48.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" s="3">
         <v>45325.0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1" t="b">
         <v>1</v>
@@ -6693,22 +6573,22 @@
         <v>49.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" s="3">
         <v>45325.0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>1</v>
@@ -6719,22 +6599,22 @@
         <v>50.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F53" s="3">
         <v>45325.0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I53" s="1" t="b">
         <v>1</v>
@@ -6745,22 +6625,22 @@
         <v>51.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" s="3">
         <v>45325.0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I54" s="1" t="b">
         <v>1</v>
@@ -6771,22 +6651,22 @@
         <v>52.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55" s="3">
         <v>45325.0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I55" s="1" t="b">
         <v>1</v>
@@ -6797,22 +6677,22 @@
         <v>53.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F56" s="3">
         <v>45325.0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I56" s="1" t="b">
         <v>1</v>
@@ -6823,22 +6703,22 @@
         <v>54.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F57" s="3">
         <v>45325.0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I57" s="1" t="b">
         <v>1</v>
@@ -6849,22 +6729,22 @@
         <v>55.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" s="3">
         <v>45325.0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I58" s="1" t="b">
         <v>1</v>
@@ -6875,22 +6755,22 @@
         <v>56.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59" s="3">
         <v>45325.0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I59" s="1" t="b">
         <v>1</v>
@@ -6901,22 +6781,22 @@
         <v>57.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F60" s="3">
         <v>45325.0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I60" s="1" t="b">
         <v>1</v>
@@ -6927,22 +6807,22 @@
         <v>58.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F61" s="3">
         <v>45325.0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I61" s="1" t="b">
         <v>1</v>
@@ -6953,22 +6833,22 @@
         <v>59.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F62" s="3">
         <v>45325.0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I62" s="1" t="b">
         <v>1</v>
@@ -6979,22 +6859,22 @@
         <v>60.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F63" s="3">
         <v>45325.0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I63" s="1" t="b">
         <v>1</v>
@@ -7005,22 +6885,22 @@
         <v>61.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F64" s="3">
         <v>45325.0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I64" s="1" t="b">
         <v>1</v>
@@ -7031,22 +6911,22 @@
         <v>62.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F65" s="3">
         <v>45325.0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I65" s="1" t="b">
         <v>1</v>
@@ -7057,22 +6937,22 @@
         <v>63.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66" s="3">
         <v>45325.0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I66" s="1" t="b">
         <v>1</v>
@@ -7080,340 +6960,134 @@
     </row>
     <row r="67">
       <c r="F67" s="3"/>
-      <c r="H67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
-      <c r="H68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69">
-      <c r="H69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70">
-      <c r="H70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71">
-      <c r="H71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D71" s="5"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72">
-      <c r="H72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D72" s="5"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73">
-      <c r="H73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D73" s="5"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74">
-      <c r="H74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D74" s="5"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75">
-      <c r="H75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D75" s="5"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76">
-      <c r="H76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="11"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77">
       <c r="B77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="H77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="B78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="H78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="D79" s="5"/>
-      <c r="H79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="B80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="H80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="B81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="H81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="B82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="H82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="B83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="H83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="B84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="H84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="B85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="H85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="H86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="D87" s="5"/>
-      <c r="H87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="D88" s="5"/>
-      <c r="H88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="H89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="B90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="H90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="B91" s="5"/>
       <c r="D91" s="5"/>
-      <c r="H91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="B92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="H92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
       <c r="B93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="H93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="B94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="H94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="B95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="H95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="B96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="H96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="B97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="H97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="98">
       <c r="B98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="H98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="B99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="H99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="B100" s="5"/>
-      <c r="H100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="H101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="H102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="H103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="1" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="C117" s="5"/>
@@ -7438,31 +7112,31 @@
   <sheetData>
     <row r="2">
       <c r="F2" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6">
@@ -7472,93 +7146,93 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29">
@@ -7571,142 +7245,142 @@
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="19" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="16" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="19" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="16" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="19" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="16" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
